--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\3_Research\Neff Paper\Working_Folder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6A6B55-D4B9-4CFB-88C0-CAD3CAFF3A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve"> Estimate</t>
+  </si>
+  <si>
+    <t>Pr(&gt;|t|)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +80,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +166,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +218,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,103 +411,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Estimate</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Std. Error</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> t value</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Pr(&gt;|t|)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.209872839951578e-015</v>
+        <v>-4.6254887183917773E-16</v>
       </c>
       <c r="B2">
-        <v>0.00305508879867048</v>
-      </c>
-      <c r="C2">
-        <v>3.960188785602871e-013</v>
-      </c>
-      <c r="D2">
-        <v>0.999999999999684</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0.99999999977421816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-0.7305587010500049</v>
+        <v>5.3171573810237287E-2</v>
       </c>
       <c r="B3">
-        <v>0.03964501363434102</v>
-      </c>
-      <c r="C3">
-        <v>-18.42750535510437</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.00124037668567827</v>
+        <v>-0.75746597418804695</v>
       </c>
       <c r="B4">
-        <v>0.0008725079070852623</v>
-      </c>
-      <c r="C4">
-        <v>1.421622286291853</v>
-      </c>
-      <c r="D4">
-        <v>0.1551359314554337</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1.288015992306768E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.1147047553461004</v>
+        <v>7.0342395987029627E-2</v>
       </c>
       <c r="B5">
-        <v>0.04897456211690485</v>
-      </c>
-      <c r="C5">
-        <v>2.342129268502577</v>
-      </c>
-      <c r="D5">
-        <v>0.01917407256665094</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>4.7898109469812766E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.8872898850492169</v>
+        <v>5.7190966415159472E-2</v>
       </c>
       <c r="B6">
-        <v>0.0416258589669516</v>
-      </c>
-      <c r="C6">
-        <v>21.3158336445062</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>3.4573701067439178E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3.271682905294965E-3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.598966341515601E-5</v>
+      </c>
+      <c r="B8">
+        <v>0.79306272331222738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.1850007652296882</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.82509808928920381</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-1.308028218886823E-2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3.3185685043857341E-2</v>
+      </c>
+      <c r="B12">
+        <v>0.43491687478327101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-1.1274082528311259E-3</v>
+      </c>
+      <c r="B13">
+        <v>0.40946920150448052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-9.4290860443003717E-4</v>
+      </c>
+      <c r="B14">
+        <v>0.68467234868311722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-6.9425739638833035E-4</v>
+      </c>
+      <c r="B15">
+        <v>0.7199815471522184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-9.9941098048575579E-4</v>
+      </c>
+      <c r="B16">
+        <v>7.704338013227674E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-6.9132691944330787E-4</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-1.338695497417925E-3</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2.3616314132557498E-3</v>
+      </c>
+      <c r="B19">
+        <v>0.3120760033574384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-2.2761291744070899E-3</v>
+      </c>
+      <c r="B20">
+        <v>0.39685700395339157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9.3575240264511124E-4</v>
+      </c>
+      <c r="B21">
+        <v>0.75604094546293221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5.4571465337530638E-3</v>
+      </c>
+      <c r="B22">
+        <v>0.23165661309435251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-9.9407306045080275E-5</v>
+      </c>
+      <c r="B23">
+        <v>0.97089928762270827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-7.696075218990594E-4</v>
+      </c>
+      <c r="B24">
+        <v>0.38423321908720398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-1.6289541323329229E-4</v>
+      </c>
+      <c r="B25">
+        <v>2.0614869985724479E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2.4562661069200179E-3</v>
+      </c>
+      <c r="B26">
+        <v>0.23504878571185639</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3.2909612286279211E-3</v>
+      </c>
+      <c r="B27">
+        <v>0.1429505455738731</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7.5719381858806124E-4</v>
+      </c>
+      <c r="B28">
+        <v>0.62713751704380249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4.4205802122247008E-3</v>
+      </c>
+      <c r="B29">
+        <v>5.2720677518598207E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-2.265969709351769E-4</v>
+      </c>
+      <c r="B30">
+        <v>0.9314242776466406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>7.5175572245976513E-2</v>
+      </c>
+      <c r="B31">
+        <v>1.223784260062844E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2.0043871272672049E-2</v>
+      </c>
+      <c r="B32">
+        <v>0.16618375545848951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-4.1449727856453121E-3</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1.3799926062095111E-2</v>
+      </c>
+      <c r="B34">
+        <v>3.4089371221611708E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3.2263783503061528E-3</v>
+      </c>
+      <c r="B35">
+        <v>0.57131457052451751</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>8.9457739327334753E-5</v>
+      </c>
+      <c r="B36">
+        <v>2.8896630371242349E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,38 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\3_Research\Neff Paper\Working_Folder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6A6B55-D4B9-4CFB-88C0-CAD3CAFF3A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t xml:space="preserve"> Estimate</t>
-  </si>
-  <si>
-    <t>Pr(&gt;|t|)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,14 +63,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -134,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,301 +350,481 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Estimate</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Std. Error</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> t value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Pr(&gt;|t|)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>-4.625517523236708e-016</v>
+      </c>
+      <c r="B2">
+        <v>0.01394277175470664</v>
+      </c>
+      <c r="C2">
+        <v>-3.317502147071497e-014</v>
+      </c>
+      <c r="D2">
+        <v>0.9999999999999736</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.02664292898879306</v>
+      </c>
+      <c r="B3">
+        <v>0.008785673673617041</v>
+      </c>
+      <c r="C3">
+        <v>3.032542520763149</v>
+      </c>
+      <c r="D3">
+        <v>0.002425029297639325</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.01288787776936251</v>
+      </c>
+      <c r="B4">
+        <v>0.02295777345500975</v>
+      </c>
+      <c r="C4">
+        <v>0.561373157315052</v>
+      </c>
+      <c r="D4">
+        <v>0.5745431789761673</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.01362145000606263</v>
+      </c>
+      <c r="B5">
+        <v>0.008848095133768245</v>
+      </c>
+      <c r="C5">
+        <v>1.539478249287482</v>
+      </c>
+      <c r="D5">
+        <v>0.1236875839091798</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.3951708265778091</v>
+      </c>
+      <c r="B6">
+        <v>0.04697014431204854</v>
+      </c>
+      <c r="C6">
+        <v>8.413234244129027</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.3541538338963469</v>
+      </c>
+      <c r="B7">
+        <v>0.07983260482555529</v>
+      </c>
+      <c r="C7">
+        <v>4.436205415947776</v>
+      </c>
+      <c r="D7">
+        <v>9.15584835547989e-006</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0.03083956897173898</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>-4.6254887183917773E-16</v>
-      </c>
-      <c r="B2">
-        <v>0.99999999977421816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5.3171573810237287E-2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>-0.75746597418804695</v>
-      </c>
-      <c r="B4">
-        <v>1.288015992306768E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>7.0342395987029627E-2</v>
-      </c>
-      <c r="B5">
-        <v>4.7898109469812766E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5.7190966415159472E-2</v>
-      </c>
-      <c r="B6">
-        <v>3.4573701067439178E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3.271682905294965E-3</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.598966341515601E-5</v>
-      </c>
-      <c r="B8">
-        <v>0.79306272331222738</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9">
-        <v>0.1850007652296882</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.0325646806436098</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
-        <v>0.82509808928920381</v>
+        <v>0.01269956717808562</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.01932937464420799</v>
+      </c>
+      <c r="C10">
+        <v>0.6570086933407866</v>
+      </c>
+      <c r="D10">
+        <v>0.5111753266902206</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
-        <v>-1.308028218886823E-2</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.009389865406776467</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
-        <v>3.3185685043857341E-2</v>
+        <v>0.005897124619269887</v>
       </c>
       <c r="B12">
-        <v>0.43491687478327101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.01052575781212391</v>
+      </c>
+      <c r="C12">
+        <v>0.5602565368241125</v>
+      </c>
+      <c r="D12">
+        <v>0.5753044686613702</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
-        <v>-1.1274082528311259E-3</v>
+        <v>0.005447960063113723</v>
       </c>
       <c r="B13">
-        <v>0.40946920150448052</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.01417493101118926</v>
+      </c>
+      <c r="C13">
+        <v>0.3843376774682902</v>
+      </c>
+      <c r="D13">
+        <v>0.700728185841244</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
-        <v>-9.4290860443003717E-4</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>0.68467234868311722</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.0119741407237132</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
-        <v>-6.9425739638833035E-4</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>0.7199815471522184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.01003303164707459</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16">
-        <v>-9.9941098048575579E-4</v>
+        <v>0.01801960836652962</v>
       </c>
       <c r="B16">
-        <v>7.704338013227674E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.01292198728445821</v>
+      </c>
+      <c r="C16">
+        <v>1.394492036701082</v>
+      </c>
+      <c r="D16">
+        <v>0.1631690725613091</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17">
-        <v>-6.9132691944330787E-4</v>
+        <v>0.02068729690657744</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.01311892013428919</v>
+      </c>
+      <c r="C17">
+        <v>1.576905468957512</v>
+      </c>
+      <c r="D17">
+        <v>0.1148172779740928</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18">
-        <v>-1.338695497417925E-3</v>
+        <v>0.01481962895016805</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.01284055471437287</v>
+      </c>
+      <c r="C18">
+        <v>1.154126848864242</v>
+      </c>
+      <c r="D18">
+        <v>0.2484481673630385</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19">
-        <v>2.3616314132557498E-3</v>
+        <v>0.05152283876252552</v>
       </c>
       <c r="B19">
-        <v>0.3120760033574384</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.02232783493892728</v>
+      </c>
+      <c r="C19">
+        <v>2.307560894437573</v>
+      </c>
+      <c r="D19">
+        <v>0.02102357165417956</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20">
-        <v>-2.2761291744070899E-3</v>
+        <v>0.01228002843577641</v>
       </c>
       <c r="B20">
-        <v>0.39685700395339157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.01477806357774802</v>
+      </c>
+      <c r="C20">
+        <v>0.8309632971309572</v>
+      </c>
+      <c r="D20">
+        <v>0.4059943638441408</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21">
-        <v>9.3575240264511124E-4</v>
+        <v>0.007251993592139516</v>
       </c>
       <c r="B21">
-        <v>0.75604094546293221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.005428581126913892</v>
+      </c>
+      <c r="C21">
+        <v>1.335891169828058</v>
+      </c>
+      <c r="D21">
+        <v>0.1815848475507598</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22">
-        <v>5.4571465337530638E-3</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>0.23165661309435251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.01490414529899807</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23">
-        <v>-9.9407306045080275E-5</v>
+        <v>0.047391578807264</v>
       </c>
       <c r="B23">
-        <v>0.97089928762270827</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.01741705793338599</v>
+      </c>
+      <c r="C23">
+        <v>2.720986459855609</v>
+      </c>
+      <c r="D23">
+        <v>0.006508742745055862</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24">
-        <v>-7.696075218990594E-4</v>
+        <v>0.06641037099465888</v>
       </c>
       <c r="B24">
-        <v>0.38423321908720398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.02089319499248816</v>
+      </c>
+      <c r="C24">
+        <v>3.17856464837167</v>
+      </c>
+      <c r="D24">
+        <v>0.001480062082075628</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25">
-        <v>-1.6289541323329229E-4</v>
+        <v>0.01506396903926327</v>
       </c>
       <c r="B25">
-        <v>2.0614869985724479E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.009007921498320396</v>
+      </c>
+      <c r="C25">
+        <v>1.672302433149765</v>
+      </c>
+      <c r="D25">
+        <v>0.09446470010677754</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26">
-        <v>2.4562661069200179E-3</v>
+        <v>0.03195245139836501</v>
       </c>
       <c r="B26">
-        <v>0.23504878571185639</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.01302016268036279</v>
+      </c>
+      <c r="C26">
+        <v>2.45407466732779</v>
+      </c>
+      <c r="D26">
+        <v>0.01412476492326875</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27">
-        <v>3.2909612286279211E-3</v>
+        <v>0.04024217534008422</v>
       </c>
       <c r="B27">
-        <v>0.1429505455738731</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.0142549154747071</v>
+      </c>
+      <c r="C27">
+        <v>2.823038509873107</v>
+      </c>
+      <c r="D27">
+        <v>0.004757085720885623</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28">
-        <v>7.5719381858806124E-4</v>
+        <v>0.1904939349383596</v>
       </c>
       <c r="B28">
-        <v>0.62713751704380249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.1105476861270845</v>
+      </c>
+      <c r="C28">
+        <v>1.723183375537772</v>
+      </c>
+      <c r="D28">
+        <v>0.08485536908206681</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29">
-        <v>4.4205802122247008E-3</v>
+        <v>0.007950510190938002</v>
       </c>
       <c r="B29">
-        <v>5.2720677518598207E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.02960458847068842</v>
+      </c>
+      <c r="C29">
+        <v>0.2685566867044891</v>
+      </c>
+      <c r="D29">
+        <v>0.7882708470671245</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30">
-        <v>-2.265969709351769E-4</v>
+        <v>0.01524964574301021</v>
       </c>
       <c r="B30">
-        <v>0.9314242776466406</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.04579201042997649</v>
+      </c>
+      <c r="C30">
+        <v>0.3330197910032673</v>
+      </c>
+      <c r="D30">
+        <v>0.7391193439598542</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31">
-        <v>7.5175572245976513E-2</v>
+        <v>0.003703781690977437</v>
       </c>
       <c r="B31">
-        <v>1.223784260062844E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.01228789030122431</v>
+      </c>
+      <c r="C31">
+        <v>0.3014172164776251</v>
+      </c>
+      <c r="D31">
+        <v>0.7630963675639326</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32">
-        <v>2.0043871272672049E-2</v>
+        <v>0.00106104737719543</v>
       </c>
       <c r="B32">
-        <v>0.16618375545848951</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.05612790992251317</v>
+      </c>
+      <c r="C32">
+        <v>0.01890409563905459</v>
+      </c>
+      <c r="D32">
+        <v>0.9849176122781664</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33">
-        <v>-4.1449727856453121E-3</v>
+        <v>9.071723529811211e-005</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1.3799926062095111E-2</v>
-      </c>
-      <c r="B34">
-        <v>3.4089371221611708E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>3.2263783503061528E-3</v>
-      </c>
-      <c r="B35">
-        <v>0.57131457052451751</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>8.9457739327334753E-5</v>
-      </c>
-      <c r="B36">
-        <v>2.8896630371242349E-3</v>
+        <v>6.045346576198791e-005</v>
+      </c>
+      <c r="C33">
+        <v>1.500612647342273</v>
+      </c>
+      <c r="D33">
+        <v>0.1334557782228538</v>
       </c>
     </row>
   </sheetData>
